--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d84197aaff21cf7f/Documents/untitled_psycho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveumoncton-my.sharepoint.com/personal/pfh3221_umoncton_ca/Documents/Documents/GitHub2/skinnerboxmanager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_F25DC773A252ABDACC104855599C57FE5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB22B378-6BD0-4FE2-8F14-5EDDA5D5460F}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="11_F25DC773A252ABDACC104855599C57FE5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E821BD-AB50-4162-8A80-1A9139489122}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12015" yWindow="3525" windowWidth="16425" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>responses</t>
+  </si>
+  <si>
+    <t>SF</t>
   </si>
 </sst>
 </file>
@@ -345,52 +348,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
